--- a/data/trans_dic/P33B_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R1-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.09400623256003315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.06837283850433375</v>
+        <v>0.06837283850433372</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02053269226742646</v>
+        <v>0.01664357490375392</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05453168784055276</v>
+        <v>0.0551657764368314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04347254215126797</v>
+        <v>0.04197520087049793</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09339633044934953</v>
+        <v>0.08819663874253009</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1488415652950874</v>
+        <v>0.145907024905424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1038546642179678</v>
+        <v>0.098959353146021</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.08691743965645474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07171736999099917</v>
+        <v>0.07171736999099916</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03333251879032547</v>
+        <v>0.03305226938230417</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06483418182295639</v>
+        <v>0.06197061633121861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05435620296821217</v>
+        <v>0.05557213035983774</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08633551722194918</v>
+        <v>0.08854086283218714</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1169178248120406</v>
+        <v>0.1145955428889879</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09217328286159455</v>
+        <v>0.09598732748741332</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06844893552566829</v>
+        <v>0.06988100758919168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09800999922444935</v>
+        <v>0.09815699191609817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09063100920395581</v>
+        <v>0.08974518657476942</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1203425156915118</v>
+        <v>0.1235485870590634</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1431937545608437</v>
+        <v>0.1440913185720155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1232501951185017</v>
+        <v>0.1221456773273697</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1074148607844947</v>
+        <v>0.1050806066686743</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1791661088188055</v>
+        <v>0.1756475019379855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1484238824119562</v>
+        <v>0.1494214158583344</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1616650185503584</v>
+        <v>0.1582357148793794</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2265498296653159</v>
+        <v>0.2223071540101468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1845623863259438</v>
+        <v>0.1850475341639982</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1608798862947224</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3082681673340549</v>
+        <v>0.3082681673340548</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2345333610260026</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1334608100464002</v>
+        <v>0.1353030866975719</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2790851420892136</v>
+        <v>0.2799949822024456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2146688785764405</v>
+        <v>0.214721537926961</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.191992698157715</v>
+        <v>0.1916359369343752</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3370969470270808</v>
+        <v>0.3377047511229224</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2560776054049443</v>
+        <v>0.255794708178007</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1537960830856308</v>
+        <v>0.1532200709511197</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.260983612830632</v>
+        <v>0.2602243875941049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2185409327382554</v>
+        <v>0.2179760976417138</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2160899398397053</v>
+        <v>0.2162580849123679</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3225219609019641</v>
+        <v>0.3191965647011531</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2632681626088664</v>
+        <v>0.261907620487111</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.2655914728938245</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3870092772647841</v>
+        <v>0.387009277264784</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.3383989938725551</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2251134651644503</v>
+        <v>0.2280061826681923</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3527817907374299</v>
+        <v>0.3548905746712833</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3144496630399169</v>
+        <v>0.3137750323019263</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3084671030433183</v>
+        <v>0.3136252380789721</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4215830327793373</v>
+        <v>0.4203414117190186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3669072638897862</v>
+        <v>0.3676093105420157</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1145995139731708</v>
+        <v>0.1162167825496997</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2010795273596645</v>
+        <v>0.2018290135193979</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1633578662870034</v>
+        <v>0.1630404466656531</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1380317157736684</v>
+        <v>0.1392263705657714</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2248343909966031</v>
+        <v>0.2244563118292672</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1790780461591763</v>
+        <v>0.1797387385654656</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8373</v>
+        <v>6787</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19768</v>
+        <v>19998</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33487</v>
+        <v>32334</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38086</v>
+        <v>35966</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53957</v>
+        <v>52893</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>80000</v>
+        <v>76229</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15896</v>
+        <v>15762</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>32487</v>
+        <v>31052</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>53159</v>
+        <v>54348</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41173</v>
+        <v>42224</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58586</v>
+        <v>57422</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>90143</v>
+        <v>93873</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42496</v>
+        <v>43385</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>60976</v>
+        <v>61067</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>112652</v>
+        <v>111551</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>74713</v>
+        <v>76704</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>89086</v>
+        <v>89645</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>153197</v>
+        <v>151824</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>75257</v>
+        <v>73621</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>131955</v>
+        <v>129364</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>213302</v>
+        <v>214735</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>113265</v>
+        <v>110863</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>166853</v>
+        <v>163728</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>265237</v>
+        <v>265934</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81180</v>
+        <v>82300</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>169570</v>
+        <v>170123</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>261007</v>
+        <v>261071</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>116782</v>
+        <v>116565</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>204818</v>
+        <v>205187</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>311354</v>
+        <v>311010</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>62607</v>
+        <v>62373</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>114467</v>
+        <v>114134</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>184815</v>
+        <v>184337</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>87966</v>
+        <v>88034</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>141457</v>
+        <v>139999</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>222640</v>
+        <v>221489</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>69830</v>
+        <v>70727</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>163906</v>
+        <v>164885</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>243638</v>
+        <v>243115</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>95686</v>
+        <v>97286</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>195871</v>
+        <v>195294</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>284282</v>
+        <v>284826</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>404729</v>
+        <v>410440</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>750636</v>
+        <v>753434</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1186748</v>
+        <v>1184442</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>487484</v>
+        <v>491703</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>839314</v>
+        <v>837902</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1300950</v>
+        <v>1305750</v>
       </c>
     </row>
     <row r="36">
